--- a/assets/templates/import-statements-template.xlsx
+++ b/assets/templates/import-statements-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Incomes</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
   </si>
   <si>
     <t xml:space="preserve">Sales Contract ID</t>
@@ -530,13 +527,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:AA54"/>
+  <dimension ref="A8:Y54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U14" activeCellId="0" sqref="U14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.14"/>
@@ -544,8 +541,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,16 +555,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I9" s="4" t="s">
@@ -624,31 +619,25 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="R10" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
@@ -664,15 +653,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="16"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="17"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="15"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
@@ -688,15 +675,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -719,8 +704,6 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
@@ -743,8 +726,6 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
@@ -767,8 +748,6 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -791,8 +770,6 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
@@ -815,8 +792,6 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
@@ -839,8 +814,6 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
@@ -863,8 +836,6 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
@@ -887,8 +858,6 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
@@ -911,8 +880,6 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
@@ -935,8 +902,6 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
@@ -959,8 +924,6 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
@@ -983,8 +946,6 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
@@ -1007,8 +968,6 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
@@ -1031,8 +990,6 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
@@ -1055,8 +1012,6 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
@@ -1079,8 +1034,6 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
@@ -1103,8 +1056,6 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
@@ -1127,8 +1078,6 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
@@ -1151,8 +1100,6 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
@@ -1175,8 +1122,6 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
@@ -1199,8 +1144,6 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
@@ -1223,8 +1166,6 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
@@ -1247,8 +1188,6 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
@@ -1271,8 +1210,6 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
@@ -1295,8 +1232,6 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
@@ -1319,8 +1254,6 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
@@ -1343,8 +1276,6 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
@@ -1367,8 +1298,6 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
@@ -1391,8 +1320,6 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
@@ -1415,8 +1342,6 @@
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
@@ -1439,8 +1364,6 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
@@ -1463,8 +1386,6 @@
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9"/>
@@ -1487,8 +1408,6 @@
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
@@ -1511,8 +1430,6 @@
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
@@ -1535,8 +1452,6 @@
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9"/>
@@ -1559,8 +1474,6 @@
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
@@ -1583,8 +1496,6 @@
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
@@ -1607,8 +1518,6 @@
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
@@ -1631,8 +1540,6 @@
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
@@ -1655,8 +1562,6 @@
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
@@ -1679,8 +1584,6 @@
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
@@ -1703,13 +1606,11 @@
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:T8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="A11:A21"/>
     <mergeCell ref="B11:B21"/>
